--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>2090.917682526543</v>
+        <v>3417.02278694549</v>
       </c>
       <c r="R2">
-        <v>2090.917682526543</v>
+        <v>30753.20508250941</v>
       </c>
       <c r="S2">
-        <v>0.00227133284648711</v>
+        <v>0.003015865686432488</v>
       </c>
       <c r="T2">
-        <v>0.00227133284648711</v>
+        <v>0.003333077633427706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>2341.758808692389</v>
+        <v>3656.706560507709</v>
       </c>
       <c r="R3">
-        <v>2341.758808692389</v>
+        <v>32910.35904456938</v>
       </c>
       <c r="S3">
-        <v>0.002543817839020082</v>
+        <v>0.003227410681403714</v>
       </c>
       <c r="T3">
-        <v>0.002543817839020082</v>
+        <v>0.003566873155016812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>1204.771585879808</v>
+        <v>1836.151825647174</v>
       </c>
       <c r="R4">
-        <v>1204.771585879808</v>
+        <v>16525.36643082457</v>
       </c>
       <c r="S4">
-        <v>0.001308725493304272</v>
+        <v>0.00162058834000337</v>
       </c>
       <c r="T4">
-        <v>0.001308725493304272</v>
+        <v>0.00179104353796622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>1433.339403075127</v>
+        <v>2097.815534016202</v>
       </c>
       <c r="R5">
-        <v>1433.339403075127</v>
+        <v>18880.33980614582</v>
       </c>
       <c r="S5">
-        <v>0.001557015320868538</v>
+        <v>0.001851532834277653</v>
       </c>
       <c r="T5">
-        <v>0.001557015320868538</v>
+        <v>0.002046279018741043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>2828.32865141236</v>
+        <v>4184.313141402658</v>
       </c>
       <c r="R6">
-        <v>2828.32865141236</v>
+        <v>25105.87884841595</v>
       </c>
       <c r="S6">
-        <v>0.003072371437813376</v>
+        <v>0.00369307646195867</v>
       </c>
       <c r="T6">
-        <v>0.003072371437813376</v>
+        <v>0.002721012103704047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>165781.3976174308</v>
+        <v>201562.2639978384</v>
       </c>
       <c r="R7">
-        <v>165781.3976174308</v>
+        <v>1814060.375980546</v>
       </c>
       <c r="S7">
-        <v>0.1800858718120438</v>
+        <v>0.1778989352933527</v>
       </c>
       <c r="T7">
-        <v>0.1800858718120438</v>
+        <v>0.1966105337198511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>185669.6949058519</v>
+        <v>215700.6549466246</v>
       </c>
       <c r="R8">
-        <v>185669.6949058519</v>
+        <v>1941305.894519621</v>
       </c>
       <c r="S8">
-        <v>0.2016902339872716</v>
+        <v>0.1903774848326513</v>
       </c>
       <c r="T8">
-        <v>0.2016902339872716</v>
+        <v>0.2104015903156956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>95522.03751779586</v>
+        <v>108310.3456128965</v>
       </c>
       <c r="R9">
-        <v>95522.03751779586</v>
+        <v>974793.1105160683</v>
       </c>
       <c r="S9">
-        <v>0.1037641716795753</v>
+        <v>0.09559475461138879</v>
       </c>
       <c r="T9">
-        <v>0.1037641716795753</v>
+        <v>0.1056495121455942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>113644.3636627537</v>
+        <v>123745.2820336973</v>
       </c>
       <c r="R10">
-        <v>113644.3636627537</v>
+        <v>1113707.538303276</v>
       </c>
       <c r="S10">
-        <v>0.123450185611055</v>
+        <v>0.1092176357058903</v>
       </c>
       <c r="T10">
-        <v>0.123450185611055</v>
+        <v>0.1207052623015767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>224248.0804820552</v>
+        <v>246822.9457758315</v>
       </c>
       <c r="R11">
-        <v>224248.0804820552</v>
+        <v>1480937.674654989</v>
       </c>
       <c r="S11">
-        <v>0.2435973616833724</v>
+        <v>0.2178460312390628</v>
       </c>
       <c r="T11">
-        <v>0.2435973616833724</v>
+        <v>0.1605062050166708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>6787.232530359973</v>
+        <v>8306.938002525414</v>
       </c>
       <c r="R12">
-        <v>6787.232530359973</v>
+        <v>74762.44202272873</v>
       </c>
       <c r="S12">
-        <v>0.007372869966035468</v>
+        <v>0.007331706822924993</v>
       </c>
       <c r="T12">
-        <v>0.007372869966035468</v>
+        <v>0.008102863511553681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>7601.47647008683</v>
+        <v>8889.6201709907</v>
       </c>
       <c r="R13">
-        <v>7601.47647008683</v>
+        <v>80006.5815389163</v>
       </c>
       <c r="S13">
-        <v>0.008257371073281332</v>
+        <v>0.007845982339226535</v>
       </c>
       <c r="T13">
-        <v>0.008257371073281332</v>
+        <v>0.00867123107132781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>3910.754099824781</v>
+        <v>4463.768704483694</v>
       </c>
       <c r="R14">
-        <v>3910.754099824781</v>
+        <v>40173.91834035324</v>
       </c>
       <c r="S14">
-        <v>0.004248194137768692</v>
+        <v>0.003939724054359467</v>
       </c>
       <c r="T14">
-        <v>0.004248194137768692</v>
+        <v>0.004354108402949466</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>4652.697667104239</v>
+        <v>5099.885095406398</v>
       </c>
       <c r="R15">
-        <v>4652.697667104239</v>
+        <v>45898.96585865758</v>
       </c>
       <c r="S15">
-        <v>0.00505415642346009</v>
+        <v>0.004501160636898611</v>
       </c>
       <c r="T15">
-        <v>0.00505415642346009</v>
+        <v>0.004974597479856241</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>9180.908645920084</v>
+        <v>10172.25579576995</v>
       </c>
       <c r="R16">
-        <v>9180.908645920084</v>
+        <v>61033.53477461968</v>
       </c>
       <c r="S16">
-        <v>0.009973084804983028</v>
+        <v>0.008978037057663311</v>
       </c>
       <c r="T16">
-        <v>0.009973084804983028</v>
+        <v>0.006614904336004169</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>17252.3542002001</v>
+        <v>38724.69061725608</v>
       </c>
       <c r="R17">
-        <v>17252.3542002001</v>
+        <v>348522.2155553047</v>
       </c>
       <c r="S17">
-        <v>0.01874097631944767</v>
+        <v>0.03417842751780274</v>
       </c>
       <c r="T17">
-        <v>0.01874097631944767</v>
+        <v>0.03777335072241735</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>19322.06741404649</v>
+        <v>41440.99675739463</v>
       </c>
       <c r="R18">
-        <v>19322.06741404649</v>
+        <v>372968.9708165516</v>
       </c>
       <c r="S18">
-        <v>0.02098927506631048</v>
+        <v>0.03657584040986385</v>
       </c>
       <c r="T18">
-        <v>0.02098927506631048</v>
+        <v>0.0404229260415598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>9940.681215541534</v>
+        <v>20808.87831539972</v>
       </c>
       <c r="R19">
-        <v>9940.681215541534</v>
+        <v>187279.9048385975</v>
       </c>
       <c r="S19">
-        <v>0.01079841447131206</v>
+        <v>0.01836592437262088</v>
       </c>
       <c r="T19">
-        <v>0.01079841447131206</v>
+        <v>0.02029767174944041</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>11826.61530753091</v>
+        <v>23774.28029956746</v>
       </c>
       <c r="R20">
-        <v>11826.61530753091</v>
+        <v>213968.5226961072</v>
       </c>
       <c r="S20">
-        <v>0.0128470766856319</v>
+        <v>0.02098318935683387</v>
       </c>
       <c r="T20">
-        <v>0.0128470766856319</v>
+        <v>0.0231902234366321</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>23336.79995942207</v>
+        <v>47420.29595634701</v>
       </c>
       <c r="R21">
-        <v>23336.79995942207</v>
+        <v>284521.7757380821</v>
       </c>
       <c r="S21">
-        <v>0.02535041944630049</v>
+        <v>0.04185317228834202</v>
       </c>
       <c r="T21">
-        <v>0.02535041944630049</v>
+        <v>0.03083688885081738</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>2533.048742158659</v>
+        <v>2829.626920145584</v>
       </c>
       <c r="R22">
-        <v>2533.048742158659</v>
+        <v>16977.76152087351</v>
       </c>
       <c r="S22">
-        <v>0.002751613254743607</v>
+        <v>0.00249742985808448</v>
       </c>
       <c r="T22">
-        <v>0.002751613254743607</v>
+        <v>0.001840074783719926</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>2836.931006116696</v>
+        <v>3028.10837616186</v>
       </c>
       <c r="R23">
-        <v>2836.931006116696</v>
+        <v>18168.65025697116</v>
       </c>
       <c r="S23">
-        <v>0.003081716048058138</v>
+        <v>0.002672609671013891</v>
       </c>
       <c r="T23">
-        <v>0.003081716048058138</v>
+        <v>0.001969145057843828</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>1459.524291991155</v>
+        <v>1520.512141497928</v>
       </c>
       <c r="R24">
-        <v>1459.524291991155</v>
+        <v>9123.072848987569</v>
       </c>
       <c r="S24">
-        <v>0.001585459577078914</v>
+        <v>0.001342004627790834</v>
       </c>
       <c r="T24">
-        <v>0.001585459577078914</v>
+        <v>0.0009887720639038772</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>1736.423486389356</v>
+        <v>1737.195119456054</v>
       </c>
       <c r="R25">
-        <v>1736.423486389356</v>
+        <v>10423.17071673633</v>
       </c>
       <c r="S25">
-        <v>0.001886251062395778</v>
+        <v>0.001533249111308627</v>
       </c>
       <c r="T25">
-        <v>0.001886251062395778</v>
+        <v>0.001129678584464395</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>3426.387558315762</v>
+        <v>3465.017895832012</v>
       </c>
       <c r="R26">
-        <v>3426.387558315762</v>
+        <v>13860.07158332805</v>
       </c>
       <c r="S26">
-        <v>0.003722033952380891</v>
+        <v>0.00305822618884425</v>
       </c>
       <c r="T26">
-        <v>0.003722033952380891</v>
+        <v>0.001502174959265353</v>
       </c>
     </row>
   </sheetData>
